--- a/Luaban/Config/Datas/RoundData.xlsx
+++ b/Luaban/Config/Datas/RoundData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="10350"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>##</t>
   </si>
@@ -24,10 +24,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>hp</t>
+    <t>EnemyIndexs</t>
+  </si>
+  <si>
+    <t>interval</t>
   </si>
   <si>
     <t>##type</t>
@@ -36,13 +36,130 @@
     <t>int</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>速度</t>
-  </si>
-  <si>
-    <t>血量</t>
+    <t>(list#sep=,),int</t>
+  </si>
+  <si>
+    <t>(list#sep=|),int</t>
+  </si>
+  <si>
+    <t>这一场出现的敌人序号</t>
+  </si>
+  <si>
+    <t>对应的出现间隔</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6</t>
+  </si>
+  <si>
+    <t>200|200|200|200|200</t>
+  </si>
+  <si>
+    <t>1,2,3,5,7</t>
+  </si>
+  <si>
+    <t>200|200|200|200|201</t>
+  </si>
+  <si>
+    <t>1,2,3,5,8</t>
+  </si>
+  <si>
+    <t>200|200|200|200|202</t>
+  </si>
+  <si>
+    <t>1,2,3,5,9</t>
+  </si>
+  <si>
+    <t>200|200|200|200|203</t>
+  </si>
+  <si>
+    <t>1,2,3,5,10</t>
+  </si>
+  <si>
+    <t>200|200|200|200|204</t>
+  </si>
+  <si>
+    <t>1,2,3,5,11</t>
+  </si>
+  <si>
+    <t>200|200|200|200|205</t>
+  </si>
+  <si>
+    <t>1,2,3,5,12</t>
+  </si>
+  <si>
+    <t>200|200|200|200|206</t>
+  </si>
+  <si>
+    <t>1,2,3,5,13</t>
+  </si>
+  <si>
+    <t>200|200|200|200|207</t>
+  </si>
+  <si>
+    <t>1,2,3,5,14</t>
+  </si>
+  <si>
+    <t>200|200|200|200|208</t>
+  </si>
+  <si>
+    <t>1,2,3,5,15</t>
+  </si>
+  <si>
+    <t>200|200|200|200|209</t>
+  </si>
+  <si>
+    <t>1,2,3,5,16</t>
+  </si>
+  <si>
+    <t>200|200|200|200|210</t>
+  </si>
+  <si>
+    <t>1,2,3,5,17</t>
+  </si>
+  <si>
+    <t>200|200|200|200|211</t>
+  </si>
+  <si>
+    <t>1,2,3,5,18</t>
+  </si>
+  <si>
+    <t>200|200|200|200|212</t>
+  </si>
+  <si>
+    <t>1,2,3,5,19</t>
+  </si>
+  <si>
+    <t>200|200|200|200|213</t>
+  </si>
+  <si>
+    <t>1,2,3,5,20</t>
+  </si>
+  <si>
+    <t>200|200|200|200|214</t>
+  </si>
+  <si>
+    <t>1,2,3,5,21</t>
+  </si>
+  <si>
+    <t>200|200|200|200|215</t>
+  </si>
+  <si>
+    <t>1,2,3,5,22</t>
+  </si>
+  <si>
+    <t>200|200|200|200|216</t>
+  </si>
+  <si>
+    <t>1,2,3,5,23</t>
+  </si>
+  <si>
+    <t>200|200|200|200|217</t>
+  </si>
+  <si>
+    <t>1,2,3,5,24</t>
+  </si>
+  <si>
+    <t>200|200|200|200|218</t>
   </si>
 </sst>
 </file>
@@ -55,14 +172,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,48 +691,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -632,128 +745,126 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1104,17 +1215,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
     <col min="5" max="9" width="9" style="1"/>
     <col min="10" max="10" width="16.5833333333333" style="1" customWidth="1"/>
     <col min="11" max="11" width="26.3333333333333" style="1" customWidth="1"/>
@@ -1146,7 +1257,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
@@ -1154,128 +1265,292 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:13">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:13">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:13">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:13">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:13">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:13">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:13">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:13">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:13">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:13">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="12:13">
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="12:13">
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="12:13">
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="12:13">
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="12:13">
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="12:13">
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="12:13">
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="7:13">
-      <c r="G19" s="5"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="7:13">
-      <c r="G20" s="5"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="12:13">
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:13">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:13">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:13">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="2:13">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="2:13">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:13">
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:13">
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:13">
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="2:13">
+      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="2:13">
+      <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="1">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Luaban/Config/Datas/RoundData.xlsx
+++ b/Luaban/Config/Datas/RoundData.xlsx
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Luaban/Config/Datas/RoundData.xlsx
+++ b/Luaban/Config/Datas/RoundData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>##</t>
   </si>
@@ -39,127 +39,67 @@
     <t>(list#sep=,),int</t>
   </si>
   <si>
-    <t>(list#sep=|),int</t>
-  </si>
-  <si>
     <t>这一场出现的敌人序号</t>
   </si>
   <si>
     <t>对应的出现间隔</t>
   </si>
   <si>
-    <t>1,2,3,5,6</t>
-  </si>
-  <si>
-    <t>200|200|200|200|200</t>
-  </si>
-  <si>
-    <t>1,2,3,5,7</t>
-  </si>
-  <si>
-    <t>200|200|200|200|201</t>
-  </si>
-  <si>
-    <t>1,2,3,5,8</t>
-  </si>
-  <si>
-    <t>200|200|200|200|202</t>
-  </si>
-  <si>
-    <t>1,2,3,5,9</t>
-  </si>
-  <si>
-    <t>200|200|200|200|203</t>
-  </si>
-  <si>
-    <t>1,2,3,5,10</t>
-  </si>
-  <si>
-    <t>200|200|200|200|204</t>
-  </si>
-  <si>
-    <t>1,2,3,5,11</t>
-  </si>
-  <si>
-    <t>200|200|200|200|205</t>
-  </si>
-  <si>
-    <t>1,2,3,5,12</t>
-  </si>
-  <si>
-    <t>200|200|200|200|206</t>
-  </si>
-  <si>
-    <t>1,2,3,5,13</t>
-  </si>
-  <si>
-    <t>200|200|200|200|207</t>
-  </si>
-  <si>
-    <t>1,2,3,5,14</t>
-  </si>
-  <si>
-    <t>200|200|200|200|208</t>
-  </si>
-  <si>
-    <t>1,2,3,5,15</t>
-  </si>
-  <si>
-    <t>200|200|200|200|209</t>
-  </si>
-  <si>
-    <t>1,2,3,5,16</t>
-  </si>
-  <si>
-    <t>200|200|200|200|210</t>
-  </si>
-  <si>
-    <t>1,2,3,5,17</t>
-  </si>
-  <si>
-    <t>200|200|200|200|211</t>
-  </si>
-  <si>
-    <t>1,2,3,5,18</t>
-  </si>
-  <si>
-    <t>200|200|200|200|212</t>
-  </si>
-  <si>
-    <t>1,2,3,5,19</t>
-  </si>
-  <si>
-    <t>200|200|200|200|213</t>
-  </si>
-  <si>
-    <t>1,2,3,5,20</t>
-  </si>
-  <si>
-    <t>200|200|200|200|214</t>
-  </si>
-  <si>
-    <t>1,2,3,5,21</t>
-  </si>
-  <si>
-    <t>200|200|200|200|215</t>
-  </si>
-  <si>
-    <t>1,2,3,5,22</t>
-  </si>
-  <si>
-    <t>200|200|200|200|216</t>
-  </si>
-  <si>
-    <t>1,2,3,5,23</t>
-  </si>
-  <si>
-    <t>200|200|200|200|217</t>
-  </si>
-  <si>
-    <t>1,2,3,5,24</t>
-  </si>
-  <si>
-    <t>200|200|200|200|218</t>
+    <t>1,2,3,5,6,1,2,3,5,6</t>
+  </si>
+  <si>
+    <t>1,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+  </si>
+  <si>
+    <t>,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,10,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,12,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,13,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,14,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,15,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,16,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,17,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,18,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,19,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,20,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,21,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,22,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,23,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+  </si>
+  <si>
+    <t>1,2,3,5,24,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
   </si>
 </sst>
 </file>
@@ -1218,13 +1158,13 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
     <col min="5" max="9" width="9" style="1"/>
     <col min="10" max="10" width="16.5833333333333" style="1" customWidth="1"/>
@@ -1257,7 +1197,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
@@ -1265,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -1276,10 +1216,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -1287,10 +1227,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -1298,10 +1238,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>310</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:13">
@@ -1310,10 +1250,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
+        <v>315</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1331,10 +1271,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
+        <v>320</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1352,10 +1292,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="3">
+        <v>325</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1373,10 +1313,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="D10" s="3">
+        <v>330</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1394,10 +1334,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="D11" s="3">
+        <v>335</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1414,10 +1354,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="D12" s="3">
+        <v>340</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -1427,10 +1367,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="D13" s="3">
+        <v>345</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -1440,10 +1380,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="D14" s="3">
+        <v>350</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -1453,10 +1393,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="D15" s="3">
+        <v>355</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -1466,10 +1406,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="D16" s="3">
+        <v>360</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -1479,10 +1419,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="D17" s="3">
+        <v>365</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -1492,10 +1432,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="D18" s="3">
+        <v>370</v>
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
@@ -1505,10 +1445,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="D19" s="3">
+        <v>375</v>
       </c>
       <c r="G19" s="6"/>
       <c r="L19" s="13"/>
@@ -1519,10 +1459,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
+      </c>
+      <c r="D20" s="3">
+        <v>380</v>
       </c>
       <c r="G20" s="6"/>
       <c r="L20" s="13"/>
@@ -1533,10 +1473,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="3">
+        <v>385</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
@@ -1546,10 +1486,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="D22" s="3">
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/Luaban/Config/Datas/RoundData.xlsx
+++ b/Luaban/Config/Datas/RoundData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13500"/>
+    <workbookView windowWidth="21600" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>1,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
   </si>
   <si>
-    <t>,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+    <t>1,2,3,5,7,1,2,3,5,6,1,2,3,5,6</t>
   </si>
   <si>
     <t>1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
@@ -1158,17 +1158,17 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="54.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.8727272727273" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
     <col min="5" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="16.5833333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.3333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5818181818182" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.3363636363636" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1512,7 +1512,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1529,7 +1529,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luaban/Config/Datas/RoundData.xlsx
+++ b/Luaban/Config/Datas/RoundData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10730"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>##</t>
   </si>
@@ -45,61 +45,16 @@
     <t>对应的出现间隔</t>
   </si>
   <si>
-    <t>1,2,3,5,6,1,2,3,5,6</t>
+    <t>1,2,3,4,5,6</t>
   </si>
   <si>
-    <t>1,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+    <t>1,4,5,6,7,8,9</t>
   </si>
   <si>
-    <t>1,2,3,5,7,1,2,3,5,6,1,2,3,5,6</t>
+    <t>1,7,8,9,10,11,12</t>
   </si>
   <si>
-    <t>1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,10,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,12,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,13,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,14,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,15,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,16,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,17,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,18,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,19,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,20,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,21,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,22,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,23,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
-  </si>
-  <si>
-    <t>1,2,3,5,24,11,1,2,3,5,9,2,3,5,7,1,2,3,5,6,1,2,3,5,6,</t>
+    <t>1,10,11,12,13,14,15</t>
   </si>
 </sst>
 </file>
@@ -1158,17 +1113,17 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="54.8727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
     <col min="5" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="16.5818181818182" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.3363636363636" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5833333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.3333333333333" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1219,7 +1174,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -1230,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>305</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -1241,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="3">
-        <v>310</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:13">
@@ -1253,7 +1208,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="3">
-        <v>315</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1271,10 +1226,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1292,10 +1247,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>325</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1313,10 +1268,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1334,10 +1289,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3">
-        <v>335</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1354,10 +1309,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -1367,10 +1322,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>345</v>
+        <v>1000</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -1380,10 +1335,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -1393,104 +1348,48 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>355</v>
+        <v>1000</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="2:13">
-      <c r="B16" s="1">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3">
-        <v>360</v>
-      </c>
+    <row r="16" s="1" customFormat="1" spans="4:13">
+      <c r="D16" s="3"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="2:13">
-      <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="3">
-        <v>365</v>
-      </c>
+    <row r="17" s="1" customFormat="1" spans="4:13">
+      <c r="D17" s="3"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="2:13">
-      <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="3">
-        <v>370</v>
-      </c>
+    <row r="18" s="1" customFormat="1" spans="4:13">
+      <c r="D18" s="3"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="2:13">
-      <c r="B19" s="1">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="3">
-        <v>375</v>
-      </c>
+    <row r="19" s="1" customFormat="1" spans="4:13">
+      <c r="D19" s="3"/>
       <c r="G19" s="6"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="2:13">
-      <c r="B20" s="1">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="3">
-        <v>380</v>
-      </c>
+    <row r="20" s="1" customFormat="1" spans="4:13">
+      <c r="D20" s="3"/>
       <c r="G20" s="6"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="2:13">
-      <c r="B21" s="1">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="3">
-        <v>385</v>
-      </c>
+    <row r="21" s="1" customFormat="1" spans="4:13">
+      <c r="D21" s="3"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="1">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="3">
-        <v>390</v>
-      </c>
+    <row r="22" spans="4:4">
+      <c r="D22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1512,7 +1411,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1529,7 +1428,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luaban/Config/Datas/RoundData.xlsx
+++ b/Luaban/Config/Datas/RoundData.xlsx
@@ -39,7 +39,7 @@
     <t>(list#sep=,),int</t>
   </si>
   <si>
-    <t>这一场出现的敌人序号</t>
+    <t>这一场出现敌人列表序号</t>
   </si>
   <si>
     <t>对应的出现间隔</t>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Luaban/Config/Datas/RoundData.xlsx
+++ b/Luaban/Config/Datas/RoundData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>##</t>
   </si>
@@ -45,16 +45,7 @@
     <t>对应的出现间隔</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6</t>
-  </si>
-  <si>
-    <t>1,4,5,6,7,8,9</t>
-  </si>
-  <si>
-    <t>1,7,8,9,10,11,12</t>
-  </si>
-  <si>
-    <t>1,10,11,12,13,14,15</t>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1104,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1182,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <v>1000</v>
@@ -1193,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3">
         <v>1000</v>
@@ -1205,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3">
         <v>1000</v>
@@ -1247,7 +1238,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3">
         <v>1000</v>
@@ -1268,7 +1259,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3">
         <v>1000</v>
@@ -1289,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3">
         <v>1000</v>
@@ -1322,7 +1313,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3">
         <v>1000</v>
@@ -1335,7 +1326,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>1000</v>
@@ -1348,7 +1339,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3">
         <v>1000</v>
